--- a/Working directory/Inspection/Inspection.xlsx
+++ b/Working directory/Inspection/Inspection.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Line</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>createBeanInstance</t>
+  </si>
+  <si>
+    <t>destroyExtendedEMsForContext</t>
+  </si>
+  <si>
+    <t>catch block catch Throwable instead of Illegal state Exception</t>
+  </si>
+  <si>
+    <t>while(true) loop</t>
   </si>
 </sst>
 </file>
@@ -404,17 +413,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,15 +578,43 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>1395</v>
+      </c>
+      <c r="B13" s="1">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1462</v>
+      </c>
+      <c r="B14" s="1">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>1476</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B15" s="1">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Working directory/Inspection/Inspection.xlsx
+++ b/Working directory/Inspection/Inspection.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Line</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>while(true) loop</t>
+  </si>
+  <si>
+    <t>doVersionCheck</t>
+  </si>
+  <si>
+    <t>useless variable (constant)</t>
+  </si>
+  <si>
+    <t>useless paramether (sessionKey) used only for log</t>
+  </si>
+  <si>
+    <t>string concat can be avoided</t>
   </si>
 </sst>
 </file>
@@ -413,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,6 +630,48 @@
         <v>12</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1754</v>
+      </c>
+      <c r="B16" s="1">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1757</v>
+      </c>
+      <c r="B17" s="1">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1778</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
